--- a/biology/Botanique/Liste_des_fêtes_de_la_pomme_de_terre/Liste_des_fêtes_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Liste_des_fêtes_de_la_pomme_de_terre/Liste_des_fêtes_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste des fêtes de la pomme de terre, non exhaustive, recense les fêtes populaires, folkloriques et manifestations diverses ayant pour thème la pomme de terre.
 La plupart de ces fêtes se tiennent annuellement et comprennent diverses manifestations : présentation de variétés, concours culinaires, dégustations gastronomiques, distractions diverses propres à toutes les fêtes locales.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,112 +527,825 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Australie
-Thorpdale Potato Festival, Thorpdale (Victoria), le second lundi de mars (Labour Day Monday)[1].
-Belgique
-Fête de la pomme de terre à Florenville (province du Luxembourg, Région wallonne), fin octobre. On y célèbre la « Plate de Florenville », la variété locale et la touffaye, spécialité gaumoise faite de pommes de terre étuvées avec divers morceaux de viande de porc[2].
-El'Fiète d'El'Penn'Tière d'Ichi (la fête de la pomme de terre d'ici) à Rumes (province de Hainaut, région de Tournai), fin septembre durant tout le week-end[3].
-Brésil
-Kartoffelfest, Santa Maria do Herval (Rio Grande do Sul), début mai[4].
-Burkina Faso
-Fête de la pomme de terre à Titao (province du Loroum), avril[5].
-Canada
-Alliston Potato Festival, Alliston (Ontario), début août[6].
-Festival régional de la patate, Grand-Sault (Nouveau-Brunswick), fin juin[7].
-Notre-Dame de la Paix (région Outaouais Québec ) mi-août
-Chili
-Fiesta de la papa nativa de Chiloé à Achao, municipalité de Quinchao (province de Chiloé), en février[8].
-Espagne
-Festa da pataca, Coristanco, (province de La Corogne, Galice), troisième week-end de septembre[9].
-Fiesta de inicio de la campaña de la Patata de Prades, Prades, (province de Tarragone, Catalogne), septembre. Cette fête organisée par la Coopérative agricole de Prades au début de la campagne de récolte célèbre la Patata de Prades, qui bénéficie d'une indication géographique protégée (IGP)[10].
-États-Unis
-Barnesville Potato Days, Barnesville (Minnesota), fin août[11].
-Ebensburg Potato Fest, Ebensburg (Pennsylvanie), fin septembre[12].
-Maine Potato Blossom Festival, Fort Fairfield (Maine), juillet[13].
-North Carolina Potato Festival, Elizabeth City (Caroline du Nord), mai[14].
-Posen Potato Festival, Posen (Michigan), début septembre[15].
-France
-Mai
-Fête de la patate, Poil (Nièvre), le 25 mai.
-Juin
-Fête de la patate, Eysines (Gironde), juin.
-Concours de pâté aux pommes de terre, Marçais (Cher), pendant la fête de la musique, première édition le samedi 16 juin 2012. Remise d'un trophée qui se transmettra d'année en année[16].
-Juillet
-Fête de la pomme de terre, Wickerschwihr (Haut-Rhin), 1er week-end de juillet.
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thorpdale Potato Festival, Thorpdale (Victoria), le second lundi de mars (Labour Day Monday).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fête de la pomme de terre à Florenville (province du Luxembourg, Région wallonne), fin octobre. On y célèbre la « Plate de Florenville », la variété locale et la touffaye, spécialité gaumoise faite de pommes de terre étuvées avec divers morceaux de viande de porc.
+El'Fiète d'El'Penn'Tière d'Ichi (la fête de la pomme de terre d'ici) à Rumes (province de Hainaut, région de Tournai), fin septembre durant tout le week-end.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kartoffelfest, Santa Maria do Herval (Rio Grande do Sul), début mai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fête de la pomme de terre à Titao (province du Loroum), avril.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alliston Potato Festival, Alliston (Ontario), début août.
+Festival régional de la patate, Grand-Sault (Nouveau-Brunswick), fin juin.
+Notre-Dame de la Paix (région Outaouais Québec ) mi-août</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chili</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fiesta de la papa nativa de Chiloé à Achao, municipalité de Quinchao (province de Chiloé), en février.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festa da pataca, Coristanco, (province de La Corogne, Galice), troisième week-end de septembre.
+Fiesta de inicio de la campaña de la Patata de Prades, Prades, (province de Tarragone, Catalogne), septembre. Cette fête organisée par la Coopérative agricole de Prades au début de la campagne de récolte célèbre la Patata de Prades, qui bénéficie d'une indication géographique protégée (IGP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Barnesville Potato Days, Barnesville (Minnesota), fin août.
+Ebensburg Potato Fest, Ebensburg (Pennsylvanie), fin septembre.
+Maine Potato Blossom Festival, Fort Fairfield (Maine), juillet.
+North Carolina Potato Festival, Elizabeth City (Caroline du Nord), mai.
+Posen Potato Festival, Posen (Michigan), début septembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fête de la patate, Poil (Nièvre), le 25 mai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fête de la patate, Eysines (Gironde), juin.
+Concours de pâté aux pommes de terre, Marçais (Cher), pendant la fête de la musique, première édition le samedi 16 juin 2012. Remise d'un trophée qui se transmettra d'année en année.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fête de la pomme de terre, Wickerschwihr (Haut-Rhin), 1er week-end de juillet.
 Fête de la pomme de terre, Le Tampon (La Réunion), 1er week-end de juillet
 Fête du pâté de pommes de terre, Saint-Marc-à-Loubaud (Creuse), troisièmes samedi et dimanche de juillet.
-Fête de la pomme de terre, Plouédern (Finistère), dernier week-end de juillet.
-Août
-Fête de la patate[17], Le Mottier (Isère), dernier week-end d'août.
-Festival international de la pomme de terre, Crevant (Indre), 15 août[18].
+Fête de la pomme de terre, Plouédern (Finistère), dernier week-end de juillet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fête de la patate, Le Mottier (Isère), dernier week-end d'août.
+Festival international de la pomme de terre, Crevant (Indre), 15 août.
 Fête de la patate, Villard-Reculas (Isère), premier dimanche d'août.
-Patate-feest, Esquelbecq (Nord), dernier dimanche d'août[19].
-Festival aux champs, Chanteix (Corrèze), août.
-Septembre
-Fête de la pomme de terre, Pertuis (Vaucluse), septembre[20]
-Fête de la Patate, Chaux-la-Lotière (Haute-Saône), premier dimanche de septembre[21].
-Fête de la patate gourmande, Saint-Christo-en-Jarez (Loire), septembre[22].
-Fête des amis de la pomme de terre, Naugeat (Saint-Laurent-sur-Gorre, Haute-Vienne), premier dimanche de septembre[23].
+Patate-feest, Esquelbecq (Nord), dernier dimanche d'août.
+Festival aux champs, Chanteix (Corrèze), août.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fête de la pomme de terre, Pertuis (Vaucluse), septembre
+Fête de la Patate, Chaux-la-Lotière (Haute-Saône), premier dimanche de septembre.
+Fête de la patate gourmande, Saint-Christo-en-Jarez (Loire), septembre.
+Fête des amis de la pomme de terre, Naugeat (Saint-Laurent-sur-Gorre, Haute-Vienne), premier dimanche de septembre.
 La pomme de terre en fête, Plœuc-sur-Lié (Côtes-d'Armor), mi-septembre.
 Fête de la Patate, Boyelles (Pas de Calais), premier dimanche de septembre.
 Fête de la Patate, Wissous (Essonne), début septembre.
-La patate en fête, Jarnages (Creuse), 1er dimanche de septembre [24].
+La patate en fête, Jarnages (Creuse), 1er dimanche de septembre .
 Fête de la Patate, La Roque-Esclapon (Var), dernier dimanche de septembre.
 Fête de la pomme de terre, Wœlfling-lès-Sarreguemines (Moselle), deuxième dimanche de septembre
-Fête de la Patate, Courcelles-Chaussy (Moselle) dernier dimanche de septembre.
-Octobre
-Foire de Méry - autour de la pomme de terre, Méry-sur-Seine (Aube), deuxième dimanche d'octobre[25].
+Fête de la Patate, Courcelles-Chaussy (Moselle) dernier dimanche de septembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Foire de Méry - autour de la pomme de terre, Méry-sur-Seine (Aube), deuxième dimanche d'octobre.
 Faites de la Pomme de terre, Sens (Yonne), premier week-end d'octobre.
-Trifòla, fête de la pomme de terre du plateau de Craponne, Craponne-sur-Arzon (Haute-Loire), fin octobre[26].
-Italie
-Festa della Patata Rossa, Borgo Pace, (province de Pesaro et Urbino, Marches),  fin août[27].
-Sagra della Patata e Festa degli Gnocchi à Montescudo (Émilie-Romagne), mi-août. Organisée par l'association Pro Loco Montescudo et associée à une foire agricole, cette fête met à l'honneur la patata di Montescudo, variété locale, et les spécialités gastronomiques, dont les gnocchis[28].
+Trifòla, fête de la pomme de terre du plateau de Craponne, Craponne-sur-Arzon (Haute-Loire), fin octobre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Festa della Patata Rossa, Borgo Pace, (province de Pesaro et Urbino, Marches),  fin août.
+Sagra della Patata e Festa degli Gnocchi à Montescudo (Émilie-Romagne), mi-août. Organisée par l'association Pro Loco Montescudo et associée à une foire agricole, cette fête met à l'honneur la patata di Montescudo, variété locale, et les spécialités gastronomiques, dont les gnocchis.
 Sagra della Patata à Sant'Agata Bolognese (Émilie-Romagne), début juillet.
-Sagra della Patata Fritta à Pistoia (Toscane), le dernier dimanche de septembre.
-Pologne
-Święto Ziemniaka (fête de la pomme de terre) à Mońki (voïvodie de Podlachie), août[29].
-Royaume-Uni
-Hampshire Potato Days, Whitchurch (Hampshire), janvier[30].
-Suède
-Potatisfestivalen, Alingsås (Västergötland), juin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Sagra della Patata Fritta à Pistoia (Toscane), le dernier dimanche de septembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pologne</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Święto Ziemniaka (fête de la pomme de terre) à Mońki (voïvodie de Podlachie), août.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hampshire Potato Days, Whitchurch (Hampshire), janvier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fêtes locales</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Suède</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Potatisfestivalen, Alingsås (Västergötland), juin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Célébrations officielles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nations unies
-L'année 2008 a été consacrée « Année internationale de la pomme de terre » par l'organisation des Nations unies (ONU) et l'organisation des Nations unies pour l'alimentation et l'agriculture (FAO).
-Bolivie
-Festival Nacional de la Papa ; il s'agit d'une « fête nationale de la pomme de terre » instituée en 1987 qui se déroule sur deux jours à la fin du mois de mai dans la ville de Betanzos (département de Potosí) ; au cours de cette manifestation, qui se tient tous les deux ans avec le soutien de l'Instituto Nacional de Innovación Agropecuaria y Forestal (INIAF), l'accent est mis particulièrement sur la diversité des variétés andines de pommes de terre et sur leur conservation par les populations indigènes[31].
-Équateur
-Día Nacional de la Papa, une « Journée nationale de la pomme de terre » a été instituée en Équateur le 25 juin 2009, à la suite des initiatives lancées au cours de l'année internationale de la pomme de terre 2008[32]. En 2010, les célébrations se sont déroulées sur deux jours, les 29 et 30 juin, dans la ville de Riobamba[33].
-Pérou
-Día Nacional de la Papa, la « Journée nationale de la pomme de terre » se célèbre au Pérou chaque année le 30 mai depuis 2005[34].
-Festival de la papa de Cajamarca (fin mai)[35].</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nations unies</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L'année 2008 a été consacrée « Année internationale de la pomme de terre » par l'organisation des Nations unies (ONU) et l'organisation des Nations unies pour l'alimentation et l'agriculture (FAO).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Célébrations officielles</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bolivie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Festival Nacional de la Papa ; il s'agit d'une « fête nationale de la pomme de terre » instituée en 1987 qui se déroule sur deux jours à la fin du mois de mai dans la ville de Betanzos (département de Potosí) ; au cours de cette manifestation, qui se tient tous les deux ans avec le soutien de l'Instituto Nacional de Innovación Agropecuaria y Forestal (INIAF), l'accent est mis particulièrement sur la diversité des variétés andines de pommes de terre et sur leur conservation par les populations indigènes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Célébrations officielles</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Équateur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Día Nacional de la Papa, une « Journée nationale de la pomme de terre » a été instituée en Équateur le 25 juin 2009, à la suite des initiatives lancées au cours de l'année internationale de la pomme de terre 2008. En 2010, les célébrations se sont déroulées sur deux jours, les 29 et 30 juin, dans la ville de Riobamba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_fêtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_f%C3%AAtes_de_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Célébrations officielles</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pérou</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Día Nacional de la Papa, la « Journée nationale de la pomme de terre » se célèbre au Pérou chaque année le 30 mai depuis 2005.
+Festival de la papa de Cajamarca (fin mai).</t>
         </is>
       </c>
     </row>
